--- a/data/pca/factorExposure/factorExposure_2014-07-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.005758141765992219</v>
+        <v>0.02070094818421969</v>
       </c>
       <c r="C2">
-        <v>0.1513935060025518</v>
+        <v>-0.07159492707111216</v>
       </c>
       <c r="D2">
-        <v>-0.03702912793778321</v>
+        <v>0.03350397212562233</v>
       </c>
       <c r="E2">
-        <v>0.2281535385554028</v>
+        <v>-0.012419772869511</v>
       </c>
       <c r="F2">
-        <v>-0.07888551619281238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.009078455222920943</v>
+      </c>
+      <c r="G2">
+        <v>0.1548842364955905</v>
+      </c>
+      <c r="H2">
+        <v>-0.01180003018252371</v>
+      </c>
+      <c r="I2">
+        <v>0.04086792728608824</v>
+      </c>
+      <c r="J2">
+        <v>-0.1271348971350764</v>
+      </c>
+      <c r="K2">
+        <v>-0.0812120611747416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01513432307509572</v>
+        <v>0.02259242658713427</v>
       </c>
       <c r="C4">
-        <v>0.1756849054733721</v>
+        <v>-0.1426866854104679</v>
       </c>
       <c r="D4">
-        <v>-0.04966579007727562</v>
+        <v>0.06491971648069594</v>
       </c>
       <c r="E4">
-        <v>0.02997023381578478</v>
+        <v>-0.01264056323455588</v>
       </c>
       <c r="F4">
-        <v>0.08028916105130447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05639335358496312</v>
+      </c>
+      <c r="G4">
+        <v>0.03028859855171452</v>
+      </c>
+      <c r="H4">
+        <v>0.01691112181309646</v>
+      </c>
+      <c r="I4">
+        <v>-0.03000514995896739</v>
+      </c>
+      <c r="J4">
+        <v>-0.09505187871698476</v>
+      </c>
+      <c r="K4">
+        <v>-0.01640214702731814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03719646346698201</v>
+        <v>0.04275702671303731</v>
       </c>
       <c r="C6">
-        <v>0.07382799056381638</v>
+        <v>-0.08624380378643495</v>
       </c>
       <c r="D6">
-        <v>-0.0738285821558157</v>
+        <v>0.02802414027493444</v>
       </c>
       <c r="E6">
-        <v>0.02658787768374602</v>
+        <v>0.01778224432050139</v>
       </c>
       <c r="F6">
-        <v>-0.008129917633750722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01932441437243678</v>
+      </c>
+      <c r="G6">
+        <v>0.04054172642761112</v>
+      </c>
+      <c r="H6">
+        <v>0.02973483960517423</v>
+      </c>
+      <c r="I6">
+        <v>-0.07870934128168801</v>
+      </c>
+      <c r="J6">
+        <v>-0.0009525250412380576</v>
+      </c>
+      <c r="K6">
+        <v>-0.06681503174413582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.01967510955048677</v>
+        <v>0.02187118604294452</v>
       </c>
       <c r="C7">
-        <v>0.0801618848181964</v>
+        <v>-0.07378840596510212</v>
       </c>
       <c r="D7">
-        <v>-0.0460606834414416</v>
+        <v>0.03234628967975033</v>
       </c>
       <c r="E7">
-        <v>-0.003789605173391946</v>
+        <v>0.01589580544787473</v>
       </c>
       <c r="F7">
-        <v>-0.01531301024745906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.006226622874387145</v>
+      </c>
+      <c r="G7">
+        <v>-0.01837320659482589</v>
+      </c>
+      <c r="H7">
+        <v>0.01935287834421717</v>
+      </c>
+      <c r="I7">
+        <v>-0.01536866198982638</v>
+      </c>
+      <c r="J7">
+        <v>-0.1076464856928668</v>
+      </c>
+      <c r="K7">
+        <v>-0.02042923932119462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01266716243279186</v>
+        <v>0.002533783166567681</v>
       </c>
       <c r="C8">
-        <v>0.07197778444773358</v>
+        <v>-0.06054580571268699</v>
       </c>
       <c r="D8">
-        <v>-0.02116332334451023</v>
+        <v>0.04396505688226527</v>
       </c>
       <c r="E8">
-        <v>0.08217109385546401</v>
+        <v>0.02656779750876155</v>
       </c>
       <c r="F8">
-        <v>0.01251103099871637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02747040602913839</v>
+      </c>
+      <c r="G8">
+        <v>0.06095242477529685</v>
+      </c>
+      <c r="H8">
+        <v>0.05299813588684488</v>
+      </c>
+      <c r="I8">
+        <v>-0.02600031592977713</v>
+      </c>
+      <c r="J8">
+        <v>-0.02845490301791323</v>
+      </c>
+      <c r="K8">
+        <v>0.01350717773373959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.006128815436596792</v>
+        <v>0.01436702188620786</v>
       </c>
       <c r="C9">
-        <v>0.1220555673309672</v>
+        <v>-0.09739687470462191</v>
       </c>
       <c r="D9">
-        <v>-0.05531875712188412</v>
+        <v>0.04138406341211229</v>
       </c>
       <c r="E9">
-        <v>-0.001431315360651491</v>
+        <v>-0.02652347002908533</v>
       </c>
       <c r="F9">
-        <v>0.02216315766139901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02256943754163241</v>
+      </c>
+      <c r="G9">
+        <v>0.01907810392368753</v>
+      </c>
+      <c r="H9">
+        <v>0.03205935875963806</v>
+      </c>
+      <c r="I9">
+        <v>-0.01158462878996628</v>
+      </c>
+      <c r="J9">
+        <v>-0.1048196946359601</v>
+      </c>
+      <c r="K9">
+        <v>-0.02318157787004966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2538443199405</v>
+        <v>0.2422102020395926</v>
       </c>
       <c r="C10">
-        <v>-0.08047723216095694</v>
+        <v>0.1035543051700966</v>
       </c>
       <c r="D10">
-        <v>0.03409914001216805</v>
+        <v>-0.008715007146828066</v>
       </c>
       <c r="E10">
-        <v>-0.01532608130418011</v>
+        <v>0.05058682562155115</v>
       </c>
       <c r="F10">
-        <v>0.04294707478445007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0009991596908567536</v>
+      </c>
+      <c r="G10">
+        <v>0.02092513802667955</v>
+      </c>
+      <c r="H10">
+        <v>0.02772453276530143</v>
+      </c>
+      <c r="I10">
+        <v>-0.05371077258402036</v>
+      </c>
+      <c r="J10">
+        <v>-0.01614219286967176</v>
+      </c>
+      <c r="K10">
+        <v>0.1478970247933476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.006777959416455373</v>
+        <v>0.01950335883824355</v>
       </c>
       <c r="C11">
-        <v>0.06846620273668923</v>
+        <v>-0.07993601581496929</v>
       </c>
       <c r="D11">
-        <v>-0.03663656615154965</v>
+        <v>0.04225005362674461</v>
       </c>
       <c r="E11">
-        <v>-0.03651693601828841</v>
+        <v>-0.01390617865845266</v>
       </c>
       <c r="F11">
-        <v>0.007296945763610009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.001135211558345555</v>
+      </c>
+      <c r="G11">
+        <v>-0.01168119472223206</v>
+      </c>
+      <c r="H11">
+        <v>0.01837356983075742</v>
+      </c>
+      <c r="I11">
+        <v>0.001218600291857531</v>
+      </c>
+      <c r="J11">
+        <v>-0.02734750476080118</v>
+      </c>
+      <c r="K11">
+        <v>-0.02415394473733871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.007438298451932485</v>
+        <v>0.01850390886569686</v>
       </c>
       <c r="C12">
-        <v>0.04561320326093335</v>
+        <v>-0.0530908409623035</v>
       </c>
       <c r="D12">
-        <v>-0.03845663453045461</v>
+        <v>0.02603663168739009</v>
       </c>
       <c r="E12">
-        <v>-0.03045384745273761</v>
+        <v>-0.007838597593064696</v>
       </c>
       <c r="F12">
-        <v>-0.01705841560606805</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01837756295276054</v>
+      </c>
+      <c r="G12">
+        <v>-0.0001276201368653119</v>
+      </c>
+      <c r="H12">
+        <v>0.01540479221799138</v>
+      </c>
+      <c r="I12">
+        <v>-0.0218642884628188</v>
+      </c>
+      <c r="J12">
+        <v>-0.0246472315525733</v>
+      </c>
+      <c r="K12">
+        <v>-0.01081487759973884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.001516949380195253</v>
+        <v>0.008611846029461625</v>
       </c>
       <c r="C13">
-        <v>0.1152806824151696</v>
+        <v>-0.1078118183518458</v>
       </c>
       <c r="D13">
-        <v>-0.05536465832076951</v>
+        <v>0.0451389715739411</v>
       </c>
       <c r="E13">
-        <v>0.07372728572410962</v>
+        <v>0.003202259779732187</v>
       </c>
       <c r="F13">
-        <v>-0.08602082561064825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.03976740972026443</v>
+      </c>
+      <c r="G13">
+        <v>0.1546449463488288</v>
+      </c>
+      <c r="H13">
+        <v>-0.06319254675083111</v>
+      </c>
+      <c r="I13">
+        <v>-0.06009723738261545</v>
+      </c>
+      <c r="J13">
+        <v>-0.2256281817178085</v>
+      </c>
+      <c r="K13">
+        <v>0.201521698291378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.00891662486402179</v>
+        <v>0.02283797221076639</v>
       </c>
       <c r="C14">
-        <v>0.08395610607869122</v>
+        <v>-0.07287339140421736</v>
       </c>
       <c r="D14">
-        <v>-0.05290246326902091</v>
+        <v>0.04640201505343397</v>
       </c>
       <c r="E14">
-        <v>0.001904441692656893</v>
+        <v>0.0140983136557935</v>
       </c>
       <c r="F14">
-        <v>-0.03988468731363325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03584561191388988</v>
+      </c>
+      <c r="G14">
+        <v>0.02003256254802207</v>
+      </c>
+      <c r="H14">
+        <v>0.06151125811594312</v>
+      </c>
+      <c r="I14">
+        <v>-0.09321598460169796</v>
+      </c>
+      <c r="J14">
+        <v>-0.1807338712635053</v>
+      </c>
+      <c r="K14">
+        <v>0.007660824928339561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.003923488081335249</v>
+        <v>0.004176471126798172</v>
       </c>
       <c r="C15">
-        <v>0.07891138514885222</v>
+        <v>-0.07060127267985052</v>
       </c>
       <c r="D15">
-        <v>-0.02797636821081115</v>
+        <v>0.0327479543077012</v>
       </c>
       <c r="E15">
-        <v>0.01484181553179011</v>
+        <v>-0.01022120948988428</v>
       </c>
       <c r="F15">
-        <v>0.006975426851212156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03500729391984633</v>
+      </c>
+      <c r="G15">
+        <v>0.01348173396064783</v>
+      </c>
+      <c r="H15">
+        <v>0.04147941260478728</v>
+      </c>
+      <c r="I15">
+        <v>-0.03648274967685233</v>
+      </c>
+      <c r="J15">
+        <v>-0.068426009943825</v>
+      </c>
+      <c r="K15">
+        <v>-0.01609405242487616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.007879710550054462</v>
+        <v>0.01791243494313084</v>
       </c>
       <c r="C16">
-        <v>0.05460438643620854</v>
+        <v>-0.06075379522104107</v>
       </c>
       <c r="D16">
-        <v>-0.02926192408751635</v>
+        <v>0.02716065770588414</v>
       </c>
       <c r="E16">
-        <v>-0.02427808213397446</v>
+        <v>-0.008526493175538051</v>
       </c>
       <c r="F16">
-        <v>-0.002772444663983413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0003504711241000135</v>
+      </c>
+      <c r="G16">
+        <v>-0.007259393750337688</v>
+      </c>
+      <c r="H16">
+        <v>0.009129974069800744</v>
+      </c>
+      <c r="I16">
+        <v>-0.00592209437182986</v>
+      </c>
+      <c r="J16">
+        <v>-0.0219942510387424</v>
+      </c>
+      <c r="K16">
+        <v>-0.02064234693541021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01275218237516037</v>
+        <v>0.01810642800699788</v>
       </c>
       <c r="C20">
-        <v>0.09526360001973877</v>
+        <v>-0.08598803092901372</v>
       </c>
       <c r="D20">
-        <v>-0.04543722416173305</v>
+        <v>0.02786983915825349</v>
       </c>
       <c r="E20">
-        <v>-0.05632171251635259</v>
+        <v>-0.000459441846003335</v>
       </c>
       <c r="F20">
-        <v>-0.004176115669158788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.0149148579779075</v>
+      </c>
+      <c r="G20">
+        <v>-0.02109326265460755</v>
+      </c>
+      <c r="H20">
+        <v>0.04493576900524254</v>
+      </c>
+      <c r="I20">
+        <v>-0.03455533025925756</v>
+      </c>
+      <c r="J20">
+        <v>-0.05793286984181466</v>
+      </c>
+      <c r="K20">
+        <v>-0.01424108244039534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.009029931412909307</v>
+        <v>0.01477122164334945</v>
       </c>
       <c r="C21">
-        <v>0.0770163026159905</v>
+        <v>-0.06719267599450333</v>
       </c>
       <c r="D21">
-        <v>-0.004122821817099946</v>
+        <v>0.01737158718840232</v>
       </c>
       <c r="E21">
-        <v>0.02213600364997705</v>
+        <v>0.0248735680756718</v>
       </c>
       <c r="F21">
-        <v>-0.09331643846652421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07125757368687206</v>
+      </c>
+      <c r="G21">
+        <v>0.05759779706759939</v>
+      </c>
+      <c r="H21">
+        <v>0.04903472897468253</v>
+      </c>
+      <c r="I21">
+        <v>-0.02524089886758085</v>
+      </c>
+      <c r="J21">
+        <v>-0.1282613441618708</v>
+      </c>
+      <c r="K21">
+        <v>0.02124481932151697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.003085291201127206</v>
+        <v>0.01064845515605808</v>
       </c>
       <c r="C22">
-        <v>0.2628080998259153</v>
+        <v>-0.1696022616438861</v>
       </c>
       <c r="D22">
-        <v>0.08670500264032049</v>
+        <v>0.02036887745273587</v>
       </c>
       <c r="E22">
-        <v>0.3587331917886314</v>
+        <v>0.0299062054172775</v>
       </c>
       <c r="F22">
-        <v>0.2323586687265393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3303542424308172</v>
+      </c>
+      <c r="G22">
+        <v>0.4066173602329324</v>
+      </c>
+      <c r="H22">
+        <v>-0.2457223995989626</v>
+      </c>
+      <c r="I22">
+        <v>0.06601887064903302</v>
+      </c>
+      <c r="J22">
+        <v>0.2393198344899434</v>
+      </c>
+      <c r="K22">
+        <v>-0.0003211969399247696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.002024549086768035</v>
+        <v>0.01578748345020744</v>
       </c>
       <c r="C23">
-        <v>0.2661143875179265</v>
+        <v>-0.1725360134809637</v>
       </c>
       <c r="D23">
-        <v>0.0914550935653986</v>
+        <v>0.02012960835767496</v>
       </c>
       <c r="E23">
-        <v>0.3525028357007743</v>
+        <v>0.02636855361734747</v>
       </c>
       <c r="F23">
-        <v>0.2299436587671219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.3201829140220703</v>
+      </c>
+      <c r="G23">
+        <v>0.396084575582376</v>
+      </c>
+      <c r="H23">
+        <v>-0.2329244339170246</v>
+      </c>
+      <c r="I23">
+        <v>0.06384281067179134</v>
+      </c>
+      <c r="J23">
+        <v>0.2204722431586197</v>
+      </c>
+      <c r="K23">
+        <v>-0.005591655600738072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.005910866304620798</v>
+        <v>0.01873343026261631</v>
       </c>
       <c r="C24">
-        <v>0.06015122868178023</v>
+        <v>-0.06433023899770614</v>
       </c>
       <c r="D24">
-        <v>-0.04807505240081653</v>
+        <v>0.04108085954780812</v>
       </c>
       <c r="E24">
-        <v>-0.02896259254127891</v>
+        <v>-0.01409838495915627</v>
       </c>
       <c r="F24">
-        <v>0.002017436475693056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.0007149281075193297</v>
+      </c>
+      <c r="G24">
+        <v>-0.008394422806831843</v>
+      </c>
+      <c r="H24">
+        <v>0.01595892098053761</v>
+      </c>
+      <c r="I24">
+        <v>-0.01484072326396015</v>
+      </c>
+      <c r="J24">
+        <v>-0.03909814257279267</v>
+      </c>
+      <c r="K24">
+        <v>-0.02190017645649081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.007194827545656003</v>
+        <v>0.02367308888592792</v>
       </c>
       <c r="C25">
-        <v>0.06429754774312747</v>
+        <v>-0.06765965224835564</v>
       </c>
       <c r="D25">
-        <v>-0.02582736117619221</v>
+        <v>0.03437362017658281</v>
       </c>
       <c r="E25">
-        <v>-0.03176406177927765</v>
+        <v>-0.0188916329820179</v>
       </c>
       <c r="F25">
-        <v>-0.002785152105927085</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.002738186845750289</v>
+      </c>
+      <c r="G25">
+        <v>-0.005934853757707689</v>
+      </c>
+      <c r="H25">
+        <v>0.01761221924390896</v>
+      </c>
+      <c r="I25">
+        <v>-0.004680065874509215</v>
+      </c>
+      <c r="J25">
+        <v>-0.03588475284710577</v>
+      </c>
+      <c r="K25">
+        <v>-0.008901762852265568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.0102283459505383</v>
+        <v>0.02383839840390127</v>
       </c>
       <c r="C26">
-        <v>0.04568128617654556</v>
+        <v>-0.05179412469479362</v>
       </c>
       <c r="D26">
-        <v>-0.08443670159800444</v>
+        <v>0.06223665379129042</v>
       </c>
       <c r="E26">
-        <v>-0.02098083770979905</v>
+        <v>-0.005840574476755539</v>
       </c>
       <c r="F26">
-        <v>-0.02842979571585813</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.005068134935030877</v>
+      </c>
+      <c r="G26">
+        <v>-0.01166074205273827</v>
+      </c>
+      <c r="H26">
+        <v>0.03537585662993767</v>
+      </c>
+      <c r="I26">
+        <v>0.01391915578946995</v>
+      </c>
+      <c r="J26">
+        <v>-0.1170850566599998</v>
+      </c>
+      <c r="K26">
+        <v>-0.07376754025155365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3430767461806392</v>
+        <v>0.3020967768492278</v>
       </c>
       <c r="C28">
-        <v>-0.1006518911565945</v>
+        <v>0.128947901377321</v>
       </c>
       <c r="D28">
-        <v>0.03495083471179112</v>
+        <v>-0.03411841586829362</v>
       </c>
       <c r="E28">
-        <v>0.00398026316746933</v>
+        <v>0.01448459273782946</v>
       </c>
       <c r="F28">
-        <v>0.04890550974459593</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.0146668423057837</v>
+      </c>
+      <c r="G28">
+        <v>0.05524910828412488</v>
+      </c>
+      <c r="H28">
+        <v>0.04454313743505225</v>
+      </c>
+      <c r="I28">
+        <v>0.08994261531372497</v>
+      </c>
+      <c r="J28">
+        <v>-0.02330660065149118</v>
+      </c>
+      <c r="K28">
+        <v>0.2128397786008521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.004836964557330575</v>
+        <v>0.01929124648002385</v>
       </c>
       <c r="C29">
-        <v>0.0768119465289353</v>
+        <v>-0.07992476391113948</v>
       </c>
       <c r="D29">
-        <v>-0.05669542329367232</v>
+        <v>0.04720021417603487</v>
       </c>
       <c r="E29">
-        <v>-0.01465437604988713</v>
+        <v>-0.01103172652215178</v>
       </c>
       <c r="F29">
-        <v>-0.03504661392817362</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03994233605438265</v>
+      </c>
+      <c r="G29">
+        <v>0.01922205723110016</v>
+      </c>
+      <c r="H29">
+        <v>0.07368179116422728</v>
+      </c>
+      <c r="I29">
+        <v>-0.1497282539844632</v>
+      </c>
+      <c r="J29">
+        <v>-0.2513077642343584</v>
+      </c>
+      <c r="K29">
+        <v>0.04026689970925419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02212795539177948</v>
+        <v>0.04043532113499339</v>
       </c>
       <c r="C30">
-        <v>0.165209443987141</v>
+        <v>-0.1452833331050254</v>
       </c>
       <c r="D30">
-        <v>-0.06343514459516961</v>
+        <v>0.05381708372582249</v>
       </c>
       <c r="E30">
-        <v>0.0349620905710233</v>
+        <v>-0.01053316411882406</v>
       </c>
       <c r="F30">
-        <v>0.02182941702054885</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.03917182597417476</v>
+      </c>
+      <c r="G30">
+        <v>0.02994305198847028</v>
+      </c>
+      <c r="H30">
+        <v>0.03891434930722836</v>
+      </c>
+      <c r="I30">
+        <v>-0.04547965006386286</v>
+      </c>
+      <c r="J30">
+        <v>-0.03296256537974</v>
+      </c>
+      <c r="K30">
+        <v>-0.07431811022701236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.002828394342522565</v>
+        <v>0.01650666460890491</v>
       </c>
       <c r="C31">
-        <v>0.05498927765522086</v>
+        <v>-0.07421104246318898</v>
       </c>
       <c r="D31">
-        <v>-0.03608674931573763</v>
+        <v>0.04279569331095661</v>
       </c>
       <c r="E31">
-        <v>-0.01149971808619321</v>
+        <v>0.002194585867017329</v>
       </c>
       <c r="F31">
-        <v>0.004191433602728887</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.008580793320621349</v>
+      </c>
+      <c r="G31">
+        <v>0.006578977664327071</v>
+      </c>
+      <c r="H31">
+        <v>0.03115903628745785</v>
+      </c>
+      <c r="I31">
+        <v>0.01745680598188726</v>
+      </c>
+      <c r="J31">
+        <v>-0.03330864232483544</v>
+      </c>
+      <c r="K31">
+        <v>-0.009224650609103232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.009811009414271354</v>
+        <v>0.02153116846796941</v>
       </c>
       <c r="C32">
-        <v>0.08145096912766636</v>
+        <v>-0.046855925197402</v>
       </c>
       <c r="D32">
-        <v>-0.01790412941137587</v>
+        <v>0.02915643346668731</v>
       </c>
       <c r="E32">
-        <v>0.1598119928393996</v>
+        <v>0.001451557416724058</v>
       </c>
       <c r="F32">
-        <v>-0.02046291883823678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0003175667417016884</v>
+      </c>
+      <c r="G32">
+        <v>0.1087022534370361</v>
+      </c>
+      <c r="H32">
+        <v>-0.02341540548439206</v>
+      </c>
+      <c r="I32">
+        <v>-0.05331914901274319</v>
+      </c>
+      <c r="J32">
+        <v>-0.1772189261536883</v>
+      </c>
+      <c r="K32">
+        <v>0.2663719494577979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.009607469646308438</v>
+        <v>0.01910390592507681</v>
       </c>
       <c r="C33">
-        <v>0.09281282961495581</v>
+        <v>-0.1003928766853436</v>
       </c>
       <c r="D33">
-        <v>-0.0635371982162861</v>
+        <v>0.0515059715540956</v>
       </c>
       <c r="E33">
-        <v>-0.02085842484104279</v>
+        <v>-0.001151462772964216</v>
       </c>
       <c r="F33">
-        <v>-0.00436733230350313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01824458206203313</v>
+      </c>
+      <c r="G33">
+        <v>0.01204522919178886</v>
+      </c>
+      <c r="H33">
+        <v>0.01381570870639863</v>
+      </c>
+      <c r="I33">
+        <v>-0.02897709212175124</v>
+      </c>
+      <c r="J33">
+        <v>-0.05915474848346294</v>
+      </c>
+      <c r="K33">
+        <v>0.01736580567618947</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.004279391264208839</v>
+        <v>0.01888295558024444</v>
       </c>
       <c r="C34">
-        <v>0.04678153859020003</v>
+        <v>-0.04985312949147599</v>
       </c>
       <c r="D34">
-        <v>-0.02380618068486001</v>
+        <v>0.02169118034426664</v>
       </c>
       <c r="E34">
-        <v>-0.01333335509653471</v>
+        <v>-0.01678484888267992</v>
       </c>
       <c r="F34">
-        <v>-0.01810633199159782</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.006976745356467382</v>
+      </c>
+      <c r="G34">
+        <v>-0.006861484999326634</v>
+      </c>
+      <c r="H34">
+        <v>0.0175650094400784</v>
+      </c>
+      <c r="I34">
+        <v>-0.02493907185127356</v>
+      </c>
+      <c r="J34">
+        <v>0.004696362721817024</v>
+      </c>
+      <c r="K34">
+        <v>-0.011712545482261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.000896445599417455</v>
+        <v>0.01257850880750274</v>
       </c>
       <c r="C35">
-        <v>0.03123191610078658</v>
+        <v>-0.04846918209505498</v>
       </c>
       <c r="D35">
-        <v>-0.01581970361480558</v>
+        <v>0.0239673281007361</v>
       </c>
       <c r="E35">
-        <v>-0.006526889787218488</v>
+        <v>0.00343052951797515</v>
       </c>
       <c r="F35">
-        <v>-0.01274351729772111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.005721315746748989</v>
+      </c>
+      <c r="G35">
+        <v>0.00917820864783218</v>
+      </c>
+      <c r="H35">
+        <v>0.0634656999221492</v>
+      </c>
+      <c r="I35">
+        <v>-0.06164807411169795</v>
+      </c>
+      <c r="J35">
+        <v>-0.1250873139561615</v>
+      </c>
+      <c r="K35">
+        <v>0.04002830113867139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.007441438135769355</v>
+        <v>0.01475735846687565</v>
       </c>
       <c r="C36">
-        <v>0.04603499651603904</v>
+        <v>-0.04467447462413947</v>
       </c>
       <c r="D36">
-        <v>-0.0515926998889213</v>
+        <v>0.03968716361266479</v>
       </c>
       <c r="E36">
-        <v>-0.01483970595289044</v>
+        <v>0.00631500752529387</v>
       </c>
       <c r="F36">
-        <v>-0.0035154029748121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01114625796938198</v>
+      </c>
+      <c r="G36">
+        <v>0.01021266528782329</v>
+      </c>
+      <c r="H36">
+        <v>0.02652016328147154</v>
+      </c>
+      <c r="I36">
+        <v>0.004796194290295193</v>
+      </c>
+      <c r="J36">
+        <v>-0.08884811777500655</v>
+      </c>
+      <c r="K36">
+        <v>-0.02504680129570013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02720284896632129</v>
+        <v>0.0116133822820999</v>
       </c>
       <c r="C38">
-        <v>0.04403447952406606</v>
+        <v>-0.05688093403163123</v>
       </c>
       <c r="D38">
-        <v>-0.03863857785841292</v>
+        <v>0.03903416795963564</v>
       </c>
       <c r="E38">
-        <v>-0.02852192789117637</v>
+        <v>0.03150065506914185</v>
       </c>
       <c r="F38">
-        <v>-0.001486532571833657</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.03435867432422071</v>
+      </c>
+      <c r="G38">
+        <v>-0.002021738747806567</v>
+      </c>
+      <c r="H38">
+        <v>0.02102973140379825</v>
+      </c>
+      <c r="I38">
+        <v>-0.03217333053867736</v>
+      </c>
+      <c r="J38">
+        <v>-0.07594069752913156</v>
+      </c>
+      <c r="K38">
+        <v>0.07176531122701792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.005077281008954505</v>
+        <v>0.02802643162687479</v>
       </c>
       <c r="C39">
-        <v>0.1225754998578216</v>
+        <v>-0.1279755617955889</v>
       </c>
       <c r="D39">
-        <v>-0.06380903776410318</v>
+        <v>0.05957143108942301</v>
       </c>
       <c r="E39">
-        <v>-0.02045299742448682</v>
+        <v>-0.008465581737142165</v>
       </c>
       <c r="F39">
-        <v>-0.029722066598077</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01412484463382378</v>
+      </c>
+      <c r="G39">
+        <v>-0.01101781792736961</v>
+      </c>
+      <c r="H39">
+        <v>0.03581147461494363</v>
+      </c>
+      <c r="I39">
+        <v>-0.05615784407304113</v>
+      </c>
+      <c r="J39">
+        <v>-0.02328985230896713</v>
+      </c>
+      <c r="K39">
+        <v>-0.101223943289087</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.0157420525201975</v>
+        <v>0.02431389720824966</v>
       </c>
       <c r="C40">
-        <v>0.05206048360704954</v>
+        <v>-0.07851215700405943</v>
       </c>
       <c r="D40">
-        <v>-0.02480272231266928</v>
+        <v>0.03937385167580417</v>
       </c>
       <c r="E40">
-        <v>0.02771928202662922</v>
+        <v>-0.008999476163248248</v>
       </c>
       <c r="F40">
-        <v>0.01783739802228575</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.007831091522738365</v>
+      </c>
+      <c r="G40">
+        <v>0.02513121884858409</v>
+      </c>
+      <c r="H40">
+        <v>-0.01379846764745649</v>
+      </c>
+      <c r="I40">
+        <v>-0.1073620144954539</v>
+      </c>
+      <c r="J40">
+        <v>-0.07083280033800897</v>
+      </c>
+      <c r="K40">
+        <v>0.04797075349869259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01294234220415361</v>
+        <v>0.0231200659305347</v>
       </c>
       <c r="C41">
-        <v>0.02329510184503607</v>
+        <v>-0.04444466535418665</v>
       </c>
       <c r="D41">
-        <v>-0.004196719155923206</v>
+        <v>0.01492149349080828</v>
       </c>
       <c r="E41">
-        <v>-0.01482407784807005</v>
+        <v>-0.00316135550831546</v>
       </c>
       <c r="F41">
-        <v>0.0009562648056051169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.004147476002422467</v>
+      </c>
+      <c r="G41">
+        <v>-0.01273989151926406</v>
+      </c>
+      <c r="H41">
+        <v>0.005274686514348369</v>
+      </c>
+      <c r="I41">
+        <v>0.003186131066310889</v>
+      </c>
+      <c r="J41">
+        <v>-0.02926439846955588</v>
+      </c>
+      <c r="K41">
+        <v>0.03116241508785438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.007319452714249575</v>
+        <v>0.02115722066582602</v>
       </c>
       <c r="C43">
-        <v>0.02476541279865343</v>
+        <v>-0.04501762085691591</v>
       </c>
       <c r="D43">
-        <v>-0.02466547481764495</v>
+        <v>0.02727812351470734</v>
       </c>
       <c r="E43">
-        <v>-0.007119980815011751</v>
+        <v>-0.002370381368608111</v>
       </c>
       <c r="F43">
-        <v>0.006874890846275036</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.00804088480118129</v>
+      </c>
+      <c r="G43">
+        <v>-0.01086266026223399</v>
+      </c>
+      <c r="H43">
+        <v>0.01378270605907937</v>
+      </c>
+      <c r="I43">
+        <v>-0.004428118752053627</v>
+      </c>
+      <c r="J43">
+        <v>-0.03966219433916032</v>
+      </c>
+      <c r="K43">
+        <v>0.001712366955583925</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01111078399381147</v>
+        <v>0.02062532329849951</v>
       </c>
       <c r="C44">
-        <v>0.1091591523915612</v>
+        <v>-0.09978952574985933</v>
       </c>
       <c r="D44">
-        <v>-0.04893582476141754</v>
+        <v>0.06383365073779639</v>
       </c>
       <c r="E44">
-        <v>0.03466210985419023</v>
+        <v>0.01171853213908859</v>
       </c>
       <c r="F44">
-        <v>0.02656615615855235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.05339668952710801</v>
+      </c>
+      <c r="G44">
+        <v>0.03634594497606787</v>
+      </c>
+      <c r="H44">
+        <v>-0.002773753965035225</v>
+      </c>
+      <c r="I44">
+        <v>-0.04787157998409348</v>
+      </c>
+      <c r="J44">
+        <v>-0.05301664062983077</v>
+      </c>
+      <c r="K44">
+        <v>-0.07916848483084719</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.005611563945888825</v>
+        <v>0.007974885332814378</v>
       </c>
       <c r="C46">
-        <v>0.07097256273009053</v>
+        <v>-0.07110511311093502</v>
       </c>
       <c r="D46">
-        <v>-0.06860387567676586</v>
+        <v>0.02677629532513437</v>
       </c>
       <c r="E46">
-        <v>-0.004401973617144881</v>
+        <v>0.01781615085216375</v>
       </c>
       <c r="F46">
-        <v>-0.01751988394610455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01808691173399535</v>
+      </c>
+      <c r="G46">
+        <v>-0.006899133219355267</v>
+      </c>
+      <c r="H46">
+        <v>0.01417567201141754</v>
+      </c>
+      <c r="I46">
+        <v>-0.01304048628247579</v>
+      </c>
+      <c r="J46">
+        <v>-0.09520902435140566</v>
+      </c>
+      <c r="K46">
+        <v>-0.00245167422445598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.009445067079646577</v>
+        <v>0.0219567912998695</v>
       </c>
       <c r="C47">
-        <v>0.05767454288446264</v>
+        <v>-0.06755349689801142</v>
       </c>
       <c r="D47">
-        <v>-0.0443763426807038</v>
+        <v>0.04649132942601748</v>
       </c>
       <c r="E47">
-        <v>-0.03628625493088855</v>
+        <v>-0.01179127414517284</v>
       </c>
       <c r="F47">
-        <v>-0.03692572785605947</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.003929276761708234</v>
+      </c>
+      <c r="G47">
+        <v>-0.006439869567271691</v>
+      </c>
+      <c r="H47">
+        <v>0.02077990649864962</v>
+      </c>
+      <c r="I47">
+        <v>-0.003150446784500725</v>
+      </c>
+      <c r="J47">
+        <v>-0.06988868705082726</v>
+      </c>
+      <c r="K47">
+        <v>0.02369536456593055</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01049623884945914</v>
+        <v>0.01833775952904985</v>
       </c>
       <c r="C48">
-        <v>0.05296953318748299</v>
+        <v>-0.0476155969461485</v>
       </c>
       <c r="D48">
-        <v>-0.07355380530824897</v>
+        <v>0.05465992735411557</v>
       </c>
       <c r="E48">
-        <v>-0.03079574341198461</v>
+        <v>-0.01470578824501058</v>
       </c>
       <c r="F48">
-        <v>-0.006082959451794214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01769852014903808</v>
+      </c>
+      <c r="G48">
+        <v>0.005946190279324254</v>
+      </c>
+      <c r="H48">
+        <v>0.03932229381555525</v>
+      </c>
+      <c r="I48">
+        <v>0.02057421805797396</v>
+      </c>
+      <c r="J48">
+        <v>-0.1167645309529924</v>
+      </c>
+      <c r="K48">
+        <v>-0.05237925019500167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02579148681814142</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05776228882749923</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.01704064817830842</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.0552501885050428</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.03287061106559932</v>
+      </c>
+      <c r="G49">
+        <v>-0.07071399245067385</v>
+      </c>
+      <c r="H49">
+        <v>0.05400633793066772</v>
+      </c>
+      <c r="I49">
+        <v>-0.09110675204783907</v>
+      </c>
+      <c r="J49">
+        <v>0.109559408978704</v>
+      </c>
+      <c r="K49">
+        <v>-0.05943027075613697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.002625764639094577</v>
+        <v>0.01706196233762037</v>
       </c>
       <c r="C50">
-        <v>0.05900244503813144</v>
+        <v>-0.07390991475955198</v>
       </c>
       <c r="D50">
-        <v>-0.03642081284651848</v>
+        <v>0.03261384627222282</v>
       </c>
       <c r="E50">
-        <v>0.001101059438957609</v>
+        <v>-0.008257372201613532</v>
       </c>
       <c r="F50">
-        <v>0.009697353154542437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02064711948858612</v>
+      </c>
+      <c r="G50">
+        <v>0.006044037772889</v>
+      </c>
+      <c r="H50">
+        <v>0.03680344934767763</v>
+      </c>
+      <c r="I50">
+        <v>-0.01210231355453334</v>
+      </c>
+      <c r="J50">
+        <v>-0.05366047902974753</v>
+      </c>
+      <c r="K50">
+        <v>0.04880603091963595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.0008346648765172631</v>
+        <v>-0.004522737771286322</v>
       </c>
       <c r="C51">
-        <v>0.07469952643731664</v>
+        <v>-0.03502380485428459</v>
       </c>
       <c r="D51">
-        <v>-0.03887082870182945</v>
+        <v>0.02421007889872398</v>
       </c>
       <c r="E51">
-        <v>0.03220542382429048</v>
+        <v>0.01762717641031205</v>
       </c>
       <c r="F51">
-        <v>0.01542972817257353</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.00925281012725329</v>
+      </c>
+      <c r="G51">
+        <v>0.01818448200613035</v>
+      </c>
+      <c r="H51">
+        <v>0.02186267683040019</v>
+      </c>
+      <c r="I51">
+        <v>-0.02935300018708654</v>
+      </c>
+      <c r="J51">
+        <v>-0.111218583631117</v>
+      </c>
+      <c r="K51">
+        <v>-0.04302860221843468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03340576376712531</v>
+        <v>0.06455033409371996</v>
       </c>
       <c r="C53">
-        <v>0.1012333930080058</v>
+        <v>-0.1263536312730463</v>
       </c>
       <c r="D53">
-        <v>-0.05802200795889255</v>
+        <v>0.05886423772216243</v>
       </c>
       <c r="E53">
-        <v>-0.08694047882230856</v>
+        <v>-0.01468648374704256</v>
       </c>
       <c r="F53">
-        <v>0.01078091217825551</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04414834065076148</v>
+      </c>
+      <c r="G53">
+        <v>-0.03878932675589751</v>
+      </c>
+      <c r="H53">
+        <v>0.02171251183506443</v>
+      </c>
+      <c r="I53">
+        <v>0.09102317377322204</v>
+      </c>
+      <c r="J53">
+        <v>0.04047423868680564</v>
+      </c>
+      <c r="K53">
+        <v>0.03075477669980136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.004974741479653846</v>
+        <v>0.01868776004986116</v>
       </c>
       <c r="C54">
-        <v>0.0735694340080298</v>
+        <v>-0.07207239443844929</v>
       </c>
       <c r="D54">
-        <v>-0.02072360327391486</v>
+        <v>0.01130212842215403</v>
       </c>
       <c r="E54">
-        <v>-0.04158597601068319</v>
+        <v>-0.00231271198683203</v>
       </c>
       <c r="F54">
-        <v>0.00757997821331974</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.002563955871854018</v>
+      </c>
+      <c r="G54">
+        <v>-0.002122655623282196</v>
+      </c>
+      <c r="H54">
+        <v>0.008759335064977357</v>
+      </c>
+      <c r="I54">
+        <v>-0.006505175030663109</v>
+      </c>
+      <c r="J54">
+        <v>-0.06128713158432166</v>
+      </c>
+      <c r="K54">
+        <v>-0.02489418539738995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01712112138604899</v>
+        <v>0.03376606867436567</v>
       </c>
       <c r="C55">
-        <v>0.05301394926328944</v>
+        <v>-0.08081453451362407</v>
       </c>
       <c r="D55">
-        <v>-0.05766640860854868</v>
+        <v>0.05414634428891276</v>
       </c>
       <c r="E55">
-        <v>-0.05944198986025022</v>
+        <v>-0.01411109821419546</v>
       </c>
       <c r="F55">
-        <v>-0.0197382035918711</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02705490909477891</v>
+      </c>
+      <c r="G55">
+        <v>-0.02716244755500505</v>
+      </c>
+      <c r="H55">
+        <v>0.005144641113982709</v>
+      </c>
+      <c r="I55">
+        <v>0.04314339658594651</v>
+      </c>
+      <c r="J55">
+        <v>0.005676570491392483</v>
+      </c>
+      <c r="K55">
+        <v>-0.005365769836311686</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.0149235382114593</v>
+        <v>0.05936973197785263</v>
       </c>
       <c r="C56">
-        <v>0.1332576252198154</v>
+        <v>-0.1569795051415156</v>
       </c>
       <c r="D56">
-        <v>-0.06492329280416341</v>
+        <v>0.08652178522149863</v>
       </c>
       <c r="E56">
-        <v>-0.05322190424186038</v>
+        <v>-0.02786266303595105</v>
       </c>
       <c r="F56">
-        <v>-0.01131843546567165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09769136903540934</v>
+      </c>
+      <c r="G56">
+        <v>-0.05315825197250736</v>
+      </c>
+      <c r="H56">
+        <v>0.05408518928648991</v>
+      </c>
+      <c r="I56">
+        <v>0.1800390885353745</v>
+      </c>
+      <c r="J56">
+        <v>0.07587047685369018</v>
+      </c>
+      <c r="K56">
+        <v>0.009929354073966704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.01910976232444514</v>
+        <v>0.01936445551095525</v>
       </c>
       <c r="C58">
-        <v>0.2802662953950525</v>
+        <v>-0.1692217969606065</v>
       </c>
       <c r="D58">
-        <v>0.02211076258341737</v>
+        <v>0.04398635794450772</v>
       </c>
       <c r="E58">
-        <v>0.1871195865954023</v>
+        <v>0.07844965052797184</v>
       </c>
       <c r="F58">
-        <v>0.1455273412746484</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.203195161282134</v>
+      </c>
+      <c r="G58">
+        <v>0.2656438744808099</v>
+      </c>
+      <c r="H58">
+        <v>0.01122171972963857</v>
+      </c>
+      <c r="I58">
+        <v>0.02399702287647966</v>
+      </c>
+      <c r="J58">
+        <v>-0.1659089551384341</v>
+      </c>
+      <c r="K58">
+        <v>-0.03874903232842783</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2903597918940855</v>
+        <v>0.2854425116610222</v>
       </c>
       <c r="C59">
-        <v>-0.002119383907109463</v>
+        <v>0.06438047597056031</v>
       </c>
       <c r="D59">
-        <v>0.01768815165454204</v>
+        <v>-0.01010048831430454</v>
       </c>
       <c r="E59">
-        <v>0.06232449162068104</v>
+        <v>0.01093048310004765</v>
       </c>
       <c r="F59">
-        <v>-0.0448155022695198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01023846454123066</v>
+      </c>
+      <c r="G59">
+        <v>0.06086550382840263</v>
+      </c>
+      <c r="H59">
+        <v>-0.02672799893645359</v>
+      </c>
+      <c r="I59">
+        <v>0.002865102644998902</v>
+      </c>
+      <c r="J59">
+        <v>0.006273661495487306</v>
+      </c>
+      <c r="K59">
+        <v>0.03510879150103605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1314126096443071</v>
+        <v>0.1615005738580507</v>
       </c>
       <c r="C60">
-        <v>0.1452993931439732</v>
+        <v>-0.1591270903624069</v>
       </c>
       <c r="D60">
-        <v>-0.07439570596190692</v>
+        <v>0.03380479373111777</v>
       </c>
       <c r="E60">
-        <v>-0.15437546396744</v>
+        <v>-0.07681631669699354</v>
       </c>
       <c r="F60">
-        <v>-0.245018902194627</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1171752753552111</v>
+      </c>
+      <c r="G60">
+        <v>-0.1099379476842614</v>
+      </c>
+      <c r="H60">
+        <v>-0.2541318388839913</v>
+      </c>
+      <c r="I60">
+        <v>-0.1406424552847441</v>
+      </c>
+      <c r="J60">
+        <v>0.1313193694348476</v>
+      </c>
+      <c r="K60">
+        <v>-0.05269533008432112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.006194511202597171</v>
+        <v>0.02844382292263797</v>
       </c>
       <c r="C61">
-        <v>0.08732719266113036</v>
+        <v>-0.09955343950781645</v>
       </c>
       <c r="D61">
-        <v>-0.07667483033501941</v>
+        <v>0.05481742514286337</v>
       </c>
       <c r="E61">
-        <v>-0.04558601364062014</v>
+        <v>-0.01742954701334654</v>
       </c>
       <c r="F61">
-        <v>-0.0323234585611611</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01527117738417844</v>
+      </c>
+      <c r="G61">
+        <v>-0.02741788292684513</v>
+      </c>
+      <c r="H61">
+        <v>0.04191988470612935</v>
+      </c>
+      <c r="I61">
+        <v>-0.03533707881282943</v>
+      </c>
+      <c r="J61">
+        <v>-0.030202094744912</v>
+      </c>
+      <c r="K61">
+        <v>-0.03252450125548987</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.00188767076352181</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01657696259068902</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.00486397758603083</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.03114081303445274</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.02257841132939278</v>
+      </c>
+      <c r="G62">
+        <v>0.007667032547738952</v>
+      </c>
+      <c r="H62">
+        <v>0.00436081035456479</v>
+      </c>
+      <c r="I62">
+        <v>-0.02467728328645319</v>
+      </c>
+      <c r="J62">
+        <v>-0.01536637975885198</v>
+      </c>
+      <c r="K62">
+        <v>0.007200467924244115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001079585410404235</v>
+        <v>0.02813083538618521</v>
       </c>
       <c r="C63">
-        <v>0.05330274923142892</v>
+        <v>-0.06204875669366947</v>
       </c>
       <c r="D63">
-        <v>-0.04691460877635868</v>
+        <v>0.06038165329929423</v>
       </c>
       <c r="E63">
-        <v>-0.009697208812787635</v>
+        <v>-0.008520746024414163</v>
       </c>
       <c r="F63">
-        <v>0.006051688810698333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.008604033941484264</v>
+      </c>
+      <c r="G63">
+        <v>-0.006183025053922365</v>
+      </c>
+      <c r="H63">
+        <v>0.04339307164474124</v>
+      </c>
+      <c r="I63">
+        <v>-0.007213080858262887</v>
+      </c>
+      <c r="J63">
+        <v>-0.04880738200766726</v>
+      </c>
+      <c r="K63">
+        <v>-0.01501142839554576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002377756351119495</v>
+        <v>0.01665615045195026</v>
       </c>
       <c r="C64">
-        <v>0.09080575167243711</v>
+        <v>-0.08503213881801504</v>
       </c>
       <c r="D64">
-        <v>-0.08548720106621985</v>
+        <v>0.0316155382750072</v>
       </c>
       <c r="E64">
-        <v>-0.04432985640794326</v>
+        <v>-0.008471952460441867</v>
       </c>
       <c r="F64">
-        <v>0.001104948567649524</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03666775795792047</v>
+      </c>
+      <c r="G64">
+        <v>0.008078781818481609</v>
+      </c>
+      <c r="H64">
+        <v>-0.02690150437492892</v>
+      </c>
+      <c r="I64">
+        <v>-0.03732956125078048</v>
+      </c>
+      <c r="J64">
+        <v>-0.04262469196211586</v>
+      </c>
+      <c r="K64">
+        <v>-0.0690286094962006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.02133739648183559</v>
+        <v>0.03465486023290528</v>
       </c>
       <c r="C65">
-        <v>0.1005981773460024</v>
+        <v>-0.09192126142981862</v>
       </c>
       <c r="D65">
-        <v>-0.06393724093979687</v>
+        <v>0.02094909176185589</v>
       </c>
       <c r="E65">
-        <v>-0.0546795450813088</v>
+        <v>0.0140122480697509</v>
       </c>
       <c r="F65">
-        <v>-0.01658251586530379</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.006278340328382738</v>
+      </c>
+      <c r="G65">
+        <v>-0.01702947966042985</v>
+      </c>
+      <c r="H65">
+        <v>-0.03983068739987781</v>
+      </c>
+      <c r="I65">
+        <v>-0.07337561668589698</v>
+      </c>
+      <c r="J65">
+        <v>-0.01496668507778554</v>
+      </c>
+      <c r="K65">
+        <v>-0.1028459522498324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.002335879856359444</v>
+        <v>0.02786945662845311</v>
       </c>
       <c r="C66">
-        <v>0.1757388250794592</v>
+        <v>-0.1739526542181556</v>
       </c>
       <c r="D66">
-        <v>-0.05137984095841318</v>
+        <v>0.05439083930322176</v>
       </c>
       <c r="E66">
-        <v>-0.005089667202432175</v>
+        <v>-0.004529278255130438</v>
       </c>
       <c r="F66">
-        <v>-0.03688576280433114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01490877963798447</v>
+      </c>
+      <c r="G66">
+        <v>0.0001311563710225583</v>
+      </c>
+      <c r="H66">
+        <v>0.05613759173978049</v>
+      </c>
+      <c r="I66">
+        <v>-0.05008122355895404</v>
+      </c>
+      <c r="J66">
+        <v>-0.03134500126516749</v>
+      </c>
+      <c r="K66">
+        <v>-0.07684484377089025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03108219533043239</v>
+        <v>0.0214871186177876</v>
       </c>
       <c r="C67">
-        <v>0.01829423772268721</v>
+        <v>-0.04991348770996842</v>
       </c>
       <c r="D67">
-        <v>-0.05350851461447304</v>
+        <v>0.03978715634118834</v>
       </c>
       <c r="E67">
-        <v>-0.06133001594552989</v>
+        <v>0.02958089063798941</v>
       </c>
       <c r="F67">
-        <v>-0.0204528406892685</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01088117979978204</v>
+      </c>
+      <c r="G67">
+        <v>-0.02800133273106878</v>
+      </c>
+      <c r="H67">
+        <v>-0.01600773259632085</v>
+      </c>
+      <c r="I67">
+        <v>-0.03960301840374913</v>
+      </c>
+      <c r="J67">
+        <v>-0.06797349546751683</v>
+      </c>
+      <c r="K67">
+        <v>0.05896998298165132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.298706681311811</v>
+        <v>0.2893477677026426</v>
       </c>
       <c r="C68">
-        <v>-0.009857314447858286</v>
+        <v>0.09247073472893684</v>
       </c>
       <c r="D68">
-        <v>-0.008672032689127333</v>
+        <v>-0.02732859436359288</v>
       </c>
       <c r="E68">
-        <v>0.03973644483237525</v>
+        <v>-0.01631094033536824</v>
       </c>
       <c r="F68">
-        <v>0.01513208340841233</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.0148757258262109</v>
+      </c>
+      <c r="G68">
+        <v>0.03648910398739849</v>
+      </c>
+      <c r="H68">
+        <v>0.008857292581498592</v>
+      </c>
+      <c r="I68">
+        <v>0.01622434124692535</v>
+      </c>
+      <c r="J68">
+        <v>-0.03717659233147854</v>
+      </c>
+      <c r="K68">
+        <v>0.04921702816707179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.0107374258631581</v>
+        <v>0.01004755062775807</v>
       </c>
       <c r="C69">
-        <v>0.04607055328014462</v>
+        <v>-0.04299651054652567</v>
       </c>
       <c r="D69">
-        <v>-0.04306511761624594</v>
+        <v>0.02464555666964541</v>
       </c>
       <c r="E69">
-        <v>-0.0388844646423214</v>
+        <v>0.01511442008144967</v>
       </c>
       <c r="F69">
-        <v>-0.00575927142162153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.006522904887423911</v>
+      </c>
+      <c r="G69">
+        <v>0.0002918237940181577</v>
+      </c>
+      <c r="H69">
+        <v>-0.01511404211019099</v>
+      </c>
+      <c r="I69">
+        <v>-0.01159572295280505</v>
+      </c>
+      <c r="J69">
+        <v>-0.03209225505361874</v>
+      </c>
+      <c r="K69">
+        <v>0.03717557460616122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2857200898191715</v>
+        <v>0.2711719974502721</v>
       </c>
       <c r="C71">
-        <v>-0.03527243406055081</v>
+        <v>0.08884316794139435</v>
       </c>
       <c r="D71">
-        <v>0.011781616138197</v>
+        <v>-0.02171597208513652</v>
       </c>
       <c r="E71">
-        <v>0.03594624581961527</v>
+        <v>0.004300888486652014</v>
       </c>
       <c r="F71">
-        <v>0.03618274415737015</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.046495994175871</v>
+      </c>
+      <c r="G71">
+        <v>0.04856072783191175</v>
+      </c>
+      <c r="H71">
+        <v>0.01253964019057742</v>
+      </c>
+      <c r="I71">
+        <v>0.01640693421408012</v>
+      </c>
+      <c r="J71">
+        <v>-0.05447193450546731</v>
+      </c>
+      <c r="K71">
+        <v>0.1077075646066072</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.01822565479536471</v>
+        <v>0.05983739090905583</v>
       </c>
       <c r="C72">
-        <v>0.1366877136521963</v>
+        <v>-0.1319420989223781</v>
       </c>
       <c r="D72">
-        <v>-0.07007072636983547</v>
+        <v>0.05276861245350972</v>
       </c>
       <c r="E72">
-        <v>-0.03874188082979087</v>
+        <v>-0.03867838928578757</v>
       </c>
       <c r="F72">
-        <v>0.01716599703249197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02321309931483734</v>
+      </c>
+      <c r="G72">
+        <v>-0.02827244961393321</v>
+      </c>
+      <c r="H72">
+        <v>0.02044075205663135</v>
+      </c>
+      <c r="I72">
+        <v>-0.000169896046173356</v>
+      </c>
+      <c r="J72">
+        <v>-0.05718526869287274</v>
+      </c>
+      <c r="K72">
+        <v>-0.1086174958477448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.1038409893470087</v>
+        <v>0.1599928447787029</v>
       </c>
       <c r="C73">
-        <v>0.1065414668883352</v>
+        <v>-0.1828951788385914</v>
       </c>
       <c r="D73">
-        <v>-0.1164858102657965</v>
+        <v>0.0697541831864211</v>
       </c>
       <c r="E73">
-        <v>-0.2414011018843457</v>
+        <v>-0.04298233386874993</v>
       </c>
       <c r="F73">
-        <v>-0.3046743672149345</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1266471797031883</v>
+      </c>
+      <c r="G73">
+        <v>-0.2160471305457836</v>
+      </c>
+      <c r="H73">
+        <v>-0.3867069340822905</v>
+      </c>
+      <c r="I73">
+        <v>-0.3042330605309957</v>
+      </c>
+      <c r="J73">
+        <v>0.1570836602313856</v>
+      </c>
+      <c r="K73">
+        <v>0.07862422045044824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01933248773245155</v>
+        <v>0.04253032922100775</v>
       </c>
       <c r="C74">
-        <v>0.08129651597860954</v>
+        <v>-0.09847064169163536</v>
       </c>
       <c r="D74">
-        <v>-0.0737961360153525</v>
+        <v>0.04589607152417902</v>
       </c>
       <c r="E74">
-        <v>-0.05675835173325613</v>
+        <v>-0.02088603628140059</v>
       </c>
       <c r="F74">
-        <v>-0.01471302899255729</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.006393093358213789</v>
+      </c>
+      <c r="G74">
+        <v>-0.02935107562903003</v>
+      </c>
+      <c r="H74">
+        <v>0.00483479910929104</v>
+      </c>
+      <c r="I74">
+        <v>0.06256075316916584</v>
+      </c>
+      <c r="J74">
+        <v>-0.01500902558137812</v>
+      </c>
+      <c r="K74">
+        <v>-0.01702393806429657</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03526235650087747</v>
+        <v>0.06988251944796521</v>
       </c>
       <c r="C75">
-        <v>0.1321923884185056</v>
+        <v>-0.1605142715631643</v>
       </c>
       <c r="D75">
-        <v>-0.05325885922657912</v>
+        <v>0.08942001242657785</v>
       </c>
       <c r="E75">
-        <v>-0.106362023976393</v>
+        <v>-0.03394385883178926</v>
       </c>
       <c r="F75">
-        <v>0.02384449742729457</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.0290989576918835</v>
+      </c>
+      <c r="G75">
+        <v>-0.09553021271690115</v>
+      </c>
+      <c r="H75">
+        <v>0.1263766627771283</v>
+      </c>
+      <c r="I75">
+        <v>0.1924171827138112</v>
+      </c>
+      <c r="J75">
+        <v>0.06945319253180676</v>
+      </c>
+      <c r="K75">
+        <v>0.1606686170821569</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.01639037477767799</v>
+        <v>0.05209985050852432</v>
       </c>
       <c r="C76">
-        <v>0.09648859346087928</v>
+        <v>-0.1275195245178531</v>
       </c>
       <c r="D76">
-        <v>-0.06698030933775799</v>
+        <v>0.07826245791479215</v>
       </c>
       <c r="E76">
-        <v>-0.09053689351749575</v>
+        <v>-0.01529557704250787</v>
       </c>
       <c r="F76">
-        <v>-0.01603244847716022</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.05398905639387056</v>
+      </c>
+      <c r="G76">
+        <v>-0.06235310861021142</v>
+      </c>
+      <c r="H76">
+        <v>0.05871421148663071</v>
+      </c>
+      <c r="I76">
+        <v>0.08153340474219213</v>
+      </c>
+      <c r="J76">
+        <v>0.06614439538339707</v>
+      </c>
+      <c r="K76">
+        <v>-0.006347088129616694</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08281645906393852</v>
+        <v>0.06338448842300533</v>
       </c>
       <c r="C77">
-        <v>0.341359607411189</v>
+        <v>-0.3967352769959118</v>
       </c>
       <c r="D77">
-        <v>0.8488436117149537</v>
+        <v>-0.8996835046467629</v>
       </c>
       <c r="E77">
-        <v>-0.3148171931985668</v>
+        <v>-0.03408710255762096</v>
       </c>
       <c r="F77">
-        <v>-0.0607894517568911</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.005976439560971907</v>
+      </c>
+      <c r="G77">
+        <v>-0.06448941655001479</v>
+      </c>
+      <c r="H77">
+        <v>0.09734735493220432</v>
+      </c>
+      <c r="I77">
+        <v>0.00113798320704647</v>
+      </c>
+      <c r="J77">
+        <v>-0.01389621108227854</v>
+      </c>
+      <c r="K77">
+        <v>0.0309545219564133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02291498797628321</v>
+        <v>0.04018398221243775</v>
       </c>
       <c r="C78">
-        <v>0.1310874895110785</v>
+        <v>-0.1093535442602682</v>
       </c>
       <c r="D78">
-        <v>-0.1330620955268063</v>
+        <v>0.08459723713910915</v>
       </c>
       <c r="E78">
-        <v>0.08235385509585427</v>
+        <v>0.03726479804792028</v>
       </c>
       <c r="F78">
-        <v>-0.08685291680122575</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04407540183625271</v>
+      </c>
+      <c r="G78">
+        <v>0.01071537730530456</v>
+      </c>
+      <c r="H78">
+        <v>0.0444810628671784</v>
+      </c>
+      <c r="I78">
+        <v>0.06491712163458242</v>
+      </c>
+      <c r="J78">
+        <v>-0.06577321562954476</v>
+      </c>
+      <c r="K78">
+        <v>-0.1379848862948801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02541659020767839</v>
+        <v>0.06141320970230434</v>
       </c>
       <c r="C79">
-        <v>0.1267254392891087</v>
+        <v>-0.13661732020601</v>
       </c>
       <c r="D79">
-        <v>-0.08313230212203111</v>
+        <v>0.06088627198014607</v>
       </c>
       <c r="E79">
-        <v>-0.07950674529686265</v>
+        <v>0.01022899806110027</v>
       </c>
       <c r="F79">
-        <v>0.003190168327485427</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.04029304573735281</v>
+      </c>
+      <c r="G79">
+        <v>-0.02163581701508513</v>
+      </c>
+      <c r="H79">
+        <v>0.09067089987555489</v>
+      </c>
+      <c r="I79">
+        <v>0.2367882632738681</v>
+      </c>
+      <c r="J79">
+        <v>0.01303186333573654</v>
+      </c>
+      <c r="K79">
+        <v>0.06299655953770003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01016446447091536</v>
+        <v>0.02147244936854856</v>
       </c>
       <c r="C80">
-        <v>0.05622589425645808</v>
+        <v>-0.04285474124630241</v>
       </c>
       <c r="D80">
-        <v>-0.03521182309667922</v>
+        <v>0.03399467527957457</v>
       </c>
       <c r="E80">
-        <v>0.02481202459625448</v>
+        <v>0.01955430302681338</v>
       </c>
       <c r="F80">
-        <v>-0.03075251060262963</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.03232329477344869</v>
+      </c>
+      <c r="G80">
+        <v>0.05497222504484063</v>
+      </c>
+      <c r="H80">
+        <v>-0.0485695010580138</v>
+      </c>
+      <c r="I80">
+        <v>-0.06672628310025598</v>
+      </c>
+      <c r="J80">
+        <v>0.01269567732700892</v>
+      </c>
+      <c r="K80">
+        <v>0.02025630288818579</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.003417937860481009</v>
+        <v>0.02199740558192799</v>
       </c>
       <c r="C81">
-        <v>0.08095153960022343</v>
+        <v>-0.101547517074243</v>
       </c>
       <c r="D81">
-        <v>-0.05220880146899542</v>
+        <v>0.05523289380883405</v>
       </c>
       <c r="E81">
-        <v>-0.08011944034854572</v>
+        <v>-0.009227129369428336</v>
       </c>
       <c r="F81">
-        <v>0.003625937791953942</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03672059348710011</v>
+      </c>
+      <c r="G81">
+        <v>-0.02448479028407705</v>
+      </c>
+      <c r="H81">
+        <v>0.06253455921098994</v>
+      </c>
+      <c r="I81">
+        <v>0.1093108276972729</v>
+      </c>
+      <c r="J81">
+        <v>-0.03215260329220859</v>
+      </c>
+      <c r="K81">
+        <v>0.05510045286738025</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01697575566487453</v>
+        <v>0.05130020660169638</v>
       </c>
       <c r="C82">
-        <v>0.07551658314632696</v>
+        <v>-0.1067799836904313</v>
       </c>
       <c r="D82">
-        <v>-0.0710037284954491</v>
+        <v>0.06697504088000482</v>
       </c>
       <c r="E82">
-        <v>-0.08663888335560309</v>
+        <v>-0.006641021442499263</v>
       </c>
       <c r="F82">
-        <v>-0.02210444644195169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.06223953205241673</v>
+      </c>
+      <c r="G82">
+        <v>-0.05192684984015481</v>
+      </c>
+      <c r="H82">
+        <v>0.06195640794534486</v>
+      </c>
+      <c r="I82">
+        <v>0.06665977010891003</v>
+      </c>
+      <c r="J82">
+        <v>0.03866873288967856</v>
+      </c>
+      <c r="K82">
+        <v>0.009573264105501316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.01546505596622286</v>
+        <v>-6.506731264575681e-05</v>
       </c>
       <c r="C83">
-        <v>0.005226274532952178</v>
+        <v>0.0212655232917716</v>
       </c>
       <c r="D83">
-        <v>0.1472452868123815</v>
+        <v>-0.05981380600845128</v>
       </c>
       <c r="E83">
-        <v>0.4930155627118354</v>
+        <v>0.001523824884267239</v>
       </c>
       <c r="F83">
-        <v>-0.7367060854769848</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.7619323633329933</v>
+      </c>
+      <c r="G83">
+        <v>0.5842648103136666</v>
+      </c>
+      <c r="H83">
+        <v>0.03881414362482433</v>
+      </c>
+      <c r="I83">
+        <v>-0.03764314138210407</v>
+      </c>
+      <c r="J83">
+        <v>0.1114878154027117</v>
+      </c>
+      <c r="K83">
+        <v>-0.07058031308772321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.008945010553836385</v>
+        <v>0.01576410132919544</v>
       </c>
       <c r="C84">
-        <v>0.1041348057153421</v>
+        <v>-0.06470892313282091</v>
       </c>
       <c r="D84">
-        <v>-0.01985866828871149</v>
+        <v>0.08758180897637123</v>
       </c>
       <c r="E84">
-        <v>0.05527061710740149</v>
+        <v>0.2071008471647377</v>
       </c>
       <c r="F84">
-        <v>0.1470318148329766</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.1442306627425205</v>
+      </c>
+      <c r="G84">
+        <v>0.08163380298930212</v>
+      </c>
+      <c r="H84">
+        <v>0.6083274465745714</v>
+      </c>
+      <c r="I84">
+        <v>-0.4935445080284556</v>
+      </c>
+      <c r="J84">
+        <v>0.4468457704760862</v>
+      </c>
+      <c r="K84">
+        <v>0.1377104211263318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.006580888820297183</v>
+        <v>0.03737780394360913</v>
       </c>
       <c r="C85">
-        <v>0.08713188049472527</v>
+        <v>-0.1150106818826131</v>
       </c>
       <c r="D85">
-        <v>-0.05485731386026332</v>
+        <v>0.08037154414973138</v>
       </c>
       <c r="E85">
-        <v>-0.06980445029180625</v>
+        <v>-0.01731891845468886</v>
       </c>
       <c r="F85">
-        <v>-0.007118065603570822</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.08199619648177274</v>
+      </c>
+      <c r="G85">
+        <v>-0.09072048950307189</v>
+      </c>
+      <c r="H85">
+        <v>0.1194943369804091</v>
+      </c>
+      <c r="I85">
+        <v>0.2187767840547853</v>
+      </c>
+      <c r="J85">
+        <v>0.09272129353382907</v>
+      </c>
+      <c r="K85">
+        <v>0.08349121316970273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01398414309242837</v>
+        <v>0.01746465524082369</v>
       </c>
       <c r="C86">
-        <v>0.1071745102849724</v>
+        <v>-0.07880526139398181</v>
       </c>
       <c r="D86">
-        <v>-0.006742388888742059</v>
+        <v>0.03744030167805166</v>
       </c>
       <c r="E86">
-        <v>0.02760079473715856</v>
+        <v>0.05528742673861765</v>
       </c>
       <c r="F86">
-        <v>0.03719268800312729</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03650697989366289</v>
+      </c>
+      <c r="G86">
+        <v>0.07778666582183222</v>
+      </c>
+      <c r="H86">
+        <v>-0.05715088101129683</v>
+      </c>
+      <c r="I86">
+        <v>0.08406731394136931</v>
+      </c>
+      <c r="J86">
+        <v>-0.04826351479625622</v>
+      </c>
+      <c r="K86">
+        <v>0.07198906933191199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.008527844007990787</v>
+        <v>0.03177509618586269</v>
       </c>
       <c r="C87">
-        <v>0.1639836789695643</v>
+        <v>-0.1255206117751236</v>
       </c>
       <c r="D87">
-        <v>-0.0348044163648185</v>
+        <v>0.02022801334887234</v>
       </c>
       <c r="E87">
-        <v>0.07812730347519352</v>
+        <v>-0.0364746811444555</v>
       </c>
       <c r="F87">
-        <v>0.06088836967260453</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01914617267964228</v>
+      </c>
+      <c r="G87">
+        <v>0.03444160201430749</v>
+      </c>
+      <c r="H87">
+        <v>0.03144482777738288</v>
+      </c>
+      <c r="I87">
+        <v>0.001195925512533875</v>
+      </c>
+      <c r="J87">
+        <v>-0.02195162767012617</v>
+      </c>
+      <c r="K87">
+        <v>-0.08183213443857401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.009626372889426912</v>
+        <v>0.04088439334552026</v>
       </c>
       <c r="C88">
-        <v>0.03440730343077898</v>
+        <v>-0.05802524217694488</v>
       </c>
       <c r="D88">
-        <v>-0.04410442255360483</v>
+        <v>0.03655572375712358</v>
       </c>
       <c r="E88">
-        <v>-0.05102056186922557</v>
+        <v>-0.01712284661832187</v>
       </c>
       <c r="F88">
-        <v>-0.01404757374200569</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.00809244250114472</v>
+      </c>
+      <c r="G88">
+        <v>-0.02196552357945973</v>
+      </c>
+      <c r="H88">
+        <v>-0.01259324818764487</v>
+      </c>
+      <c r="I88">
+        <v>0.00418567809698381</v>
+      </c>
+      <c r="J88">
+        <v>-0.01923826662757863</v>
+      </c>
+      <c r="K88">
+        <v>-0.005601215740799799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4142913486433001</v>
+        <v>0.3871530661446641</v>
       </c>
       <c r="C89">
-        <v>-0.06440549018879856</v>
+        <v>0.1317377503240523</v>
       </c>
       <c r="D89">
-        <v>-0.08134555551572335</v>
+        <v>-0.03417093606956842</v>
       </c>
       <c r="E89">
-        <v>0.0847585164581099</v>
+        <v>-0.0365890858918954</v>
       </c>
       <c r="F89">
-        <v>0.06077167297740742</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.06479603810513639</v>
+      </c>
+      <c r="G89">
+        <v>0.008646507513023514</v>
+      </c>
+      <c r="H89">
+        <v>0.08318785771781505</v>
+      </c>
+      <c r="I89">
+        <v>-0.0376109436973344</v>
+      </c>
+      <c r="J89">
+        <v>0.01272493289336753</v>
+      </c>
+      <c r="K89">
+        <v>-0.7224274362756964</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.304865600473777</v>
+        <v>0.3142113464982131</v>
       </c>
       <c r="C90">
-        <v>-0.01495331058817167</v>
+        <v>0.0893194539572456</v>
       </c>
       <c r="D90">
-        <v>0.01630698489228033</v>
+        <v>-0.02224878508110502</v>
       </c>
       <c r="E90">
-        <v>0.05350788407552504</v>
+        <v>0.009328098012444549</v>
       </c>
       <c r="F90">
-        <v>-0.0155891178054969</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01273267538891527</v>
+      </c>
+      <c r="G90">
+        <v>0.02870908567501838</v>
+      </c>
+      <c r="H90">
+        <v>0.02321492273061241</v>
+      </c>
+      <c r="I90">
+        <v>-0.006198922432066527</v>
+      </c>
+      <c r="J90">
+        <v>-0.008806310466136124</v>
+      </c>
+      <c r="K90">
+        <v>0.09221593787020445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02965850065666389</v>
+        <v>0.05987004690152331</v>
       </c>
       <c r="C91">
-        <v>0.07186200439845861</v>
+        <v>-0.07374480315026419</v>
       </c>
       <c r="D91">
-        <v>-0.0578305003896198</v>
+        <v>0.05364487363465227</v>
       </c>
       <c r="E91">
-        <v>-0.03037080981502267</v>
+        <v>-0.0120072099979747</v>
       </c>
       <c r="F91">
-        <v>-0.04136337174930786</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.06255422664337351</v>
+      </c>
+      <c r="G91">
+        <v>-0.0101958852582413</v>
+      </c>
+      <c r="H91">
+        <v>0.01225189011677848</v>
+      </c>
+      <c r="I91">
+        <v>0.09397148682566778</v>
+      </c>
+      <c r="J91">
+        <v>0.04142259728099331</v>
+      </c>
+      <c r="K91">
+        <v>0.02741972842830603</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.373193974965886</v>
+        <v>0.349369748705416</v>
       </c>
       <c r="C92">
-        <v>-0.05940949284163133</v>
+        <v>0.1222269101930181</v>
       </c>
       <c r="D92">
-        <v>0.01586388998849345</v>
+        <v>-0.04935768248481669</v>
       </c>
       <c r="E92">
-        <v>-0.009776162770197314</v>
+        <v>-0.009480836886533565</v>
       </c>
       <c r="F92">
-        <v>0.1233693910645826</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06075113678295514</v>
+      </c>
+      <c r="G92">
+        <v>0.01886854949999186</v>
+      </c>
+      <c r="H92">
+        <v>0.02517225734009148</v>
+      </c>
+      <c r="I92">
+        <v>0.01901914521897915</v>
+      </c>
+      <c r="J92">
+        <v>-0.06088404843524513</v>
+      </c>
+      <c r="K92">
+        <v>0.1308561069119377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3128346975685972</v>
+        <v>0.3037173865955788</v>
       </c>
       <c r="C93">
-        <v>-0.07371331546634231</v>
+        <v>0.1318639422550153</v>
       </c>
       <c r="D93">
-        <v>0.004705044659837966</v>
+        <v>-0.009079874939941843</v>
       </c>
       <c r="E93">
-        <v>0.05779976689660109</v>
+        <v>0.02848808231446576</v>
       </c>
       <c r="F93">
-        <v>0.03299840478307462</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.03335686863566342</v>
+      </c>
+      <c r="G93">
+        <v>0.0410092660141189</v>
+      </c>
+      <c r="H93">
+        <v>0.01802277278454401</v>
+      </c>
+      <c r="I93">
+        <v>0.03744933056775676</v>
+      </c>
+      <c r="J93">
+        <v>-0.03175429993844132</v>
+      </c>
+      <c r="K93">
+        <v>0.1278782365525918</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02826114610122724</v>
+        <v>0.09109548989506334</v>
       </c>
       <c r="C94">
-        <v>0.1952366762902556</v>
+        <v>-0.1678393627039195</v>
       </c>
       <c r="D94">
-        <v>-0.08119039352736694</v>
+        <v>0.1062786678955617</v>
       </c>
       <c r="E94">
-        <v>-0.0741512924550239</v>
+        <v>-0.007526652604130449</v>
       </c>
       <c r="F94">
-        <v>0.09584113481286337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.06948884587648818</v>
+      </c>
+      <c r="G94">
+        <v>-0.0664381805762248</v>
+      </c>
+      <c r="H94">
+        <v>0.1438712044652815</v>
+      </c>
+      <c r="I94">
+        <v>0.4489680687390122</v>
+      </c>
+      <c r="J94">
+        <v>0.2630180881754361</v>
+      </c>
+      <c r="K94">
+        <v>0.01029046155233865</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02808898127401181</v>
+        <v>0.04760414933949882</v>
       </c>
       <c r="C95">
-        <v>0.1229663959040673</v>
+        <v>-0.1329970210593883</v>
       </c>
       <c r="D95">
-        <v>-0.07143911106651263</v>
+        <v>0.0693332133973638</v>
       </c>
       <c r="E95">
-        <v>-0.1515954827171406</v>
+        <v>-0.02604321105642981</v>
       </c>
       <c r="F95">
-        <v>-0.08611148158957069</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02287838853024479</v>
+      </c>
+      <c r="G95">
+        <v>-0.08520366528027226</v>
+      </c>
+      <c r="H95">
+        <v>0.09519221357051127</v>
+      </c>
+      <c r="I95">
+        <v>-0.05302061338655857</v>
+      </c>
+      <c r="J95">
+        <v>0.04021454047737438</v>
+      </c>
+      <c r="K95">
+        <v>-0.07663649498117807</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.001415282327218089</v>
+        <v>0.0256970230692275</v>
       </c>
       <c r="C97">
-        <v>0.0004372719838869907</v>
+        <v>-0.02939735284596947</v>
       </c>
       <c r="D97">
-        <v>-0.001366020941618928</v>
+        <v>0.003187007911585603</v>
       </c>
       <c r="E97">
-        <v>-0.00526704242137498</v>
+        <v>0.04913126839181992</v>
       </c>
       <c r="F97">
-        <v>0.002683128438494452</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.0141743527204702</v>
+      </c>
+      <c r="G97">
+        <v>-0.02049398581294051</v>
+      </c>
+      <c r="H97">
+        <v>-0.01142270642056822</v>
+      </c>
+      <c r="I97">
+        <v>0.008331469979936971</v>
+      </c>
+      <c r="J97">
+        <v>-0.03677006128224954</v>
+      </c>
+      <c r="K97">
+        <v>-0.05823493462464268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.1005895379708727</v>
+        <v>0.1417485603621667</v>
       </c>
       <c r="C98">
-        <v>0.153144287061238</v>
+        <v>-0.1546050424798403</v>
       </c>
       <c r="D98">
-        <v>-0.1411903411004989</v>
+        <v>0.08215236809523685</v>
       </c>
       <c r="E98">
-        <v>-0.1749022263945687</v>
+        <v>-0.04983184781481639</v>
       </c>
       <c r="F98">
-        <v>-0.2113080149865971</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1446630605088796</v>
+      </c>
+      <c r="G98">
+        <v>-0.172288657410288</v>
+      </c>
+      <c r="H98">
+        <v>-0.3238856871224622</v>
+      </c>
+      <c r="I98">
+        <v>-0.2247309340071617</v>
+      </c>
+      <c r="J98">
+        <v>0.1966988289662324</v>
+      </c>
+      <c r="K98">
+        <v>0.100217330462764</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02758817987150261</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04748795924843292</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.02972326226134067</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.9511698940206782</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.09752341429638381</v>
+      </c>
+      <c r="G99">
+        <v>-0.1207223762326139</v>
+      </c>
+      <c r="H99">
+        <v>-0.1449388034138745</v>
+      </c>
+      <c r="I99">
+        <v>0.07677847717244771</v>
+      </c>
+      <c r="J99">
+        <v>-0.04796971877470881</v>
+      </c>
+      <c r="K99">
+        <v>-0.07258407188120429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.004907339911808298</v>
+        <v>0.01936154652284964</v>
       </c>
       <c r="C101">
-        <v>0.07501049529137543</v>
+        <v>-0.07863611450651228</v>
       </c>
       <c r="D101">
-        <v>-0.05696285419090766</v>
+        <v>0.04580711370483233</v>
       </c>
       <c r="E101">
-        <v>-0.01318714630015587</v>
+        <v>-0.009641922210503343</v>
       </c>
       <c r="F101">
-        <v>-0.03463720374987281</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03965575263998836</v>
+      </c>
+      <c r="G101">
+        <v>0.01936273834175468</v>
+      </c>
+      <c r="H101">
+        <v>0.07316797332773542</v>
+      </c>
+      <c r="I101">
+        <v>-0.1515573864721393</v>
+      </c>
+      <c r="J101">
+        <v>-0.2491796233544951</v>
+      </c>
+      <c r="K101">
+        <v>0.04166206737088695</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.001692552885612086</v>
+        <v>0.0009330679026180753</v>
       </c>
       <c r="C102">
-        <v>0.003755153643381994</v>
+        <v>-0.001591302156628935</v>
       </c>
       <c r="D102">
-        <v>-0.003073584716841957</v>
+        <v>-0.000416687154100615</v>
       </c>
       <c r="E102">
-        <v>-0.007274852263699306</v>
+        <v>-0.001662074773169475</v>
       </c>
       <c r="F102">
-        <v>-0.00988129617808417</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.004547145835028507</v>
+      </c>
+      <c r="G102">
+        <v>-0.003056975732476209</v>
+      </c>
+      <c r="H102">
+        <v>0.001573004573406701</v>
+      </c>
+      <c r="I102">
+        <v>-0.002095816934722811</v>
+      </c>
+      <c r="J102">
+        <v>-0.002613366127812071</v>
+      </c>
+      <c r="K102">
+        <v>-0.0239779375797304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
